--- a/data/trans_dic/P79$hipoteca_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P79$hipoteca_2023-Habitat-trans_dic.xlsx
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0008572415024962508</v>
+        <v>0.0008487303700305113</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0006816154777980936</v>
+        <v>0.0006731072649906327</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01037684169692425</v>
+        <v>0.009015820202221345</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.009550007423930378</v>
+        <v>0.009114737772418417</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.006600278568750486</v>
+        <v>0.005984766953407396</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.007291157839234885</v>
+        <v>0.007291157839234884</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.00766293282171777</v>
+        <v>0.007662932821717771</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.007478080799372534</v>
+        <v>0.007478080799372535</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003174603705551198</v>
+        <v>0.003305867116092899</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00366606252610687</v>
+        <v>0.003810817718791683</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004518396059838664</v>
+        <v>0.004496245285953437</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01459863210327449</v>
+        <v>0.01480221307766008</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01370689443761822</v>
+        <v>0.01438192174317335</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01206475861653191</v>
+        <v>0.0120701210358224</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.009393495904323007</v>
+        <v>0.009393495904323005</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.007011178748421752</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.008196710012691752</v>
+        <v>0.00819671001269175</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003731676412510274</v>
+        <v>0.003922334409733114</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003022033380952236</v>
+        <v>0.002969696681400183</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.004685988954461956</v>
+        <v>0.004496743269133058</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02137613583927517</v>
+        <v>0.02107742868811472</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01437984674837576</v>
+        <v>0.01348702334085732</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01411637451581718</v>
+        <v>0.01384205045230045</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.009197255979929684</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.01412751934779536</v>
+        <v>0.01412751934779535</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01202642086915269</v>
+        <v>0.01180577107927947</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005105044300946968</v>
+        <v>0.00529848298714432</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009469655786460357</v>
+        <v>0.009518318090302636</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03250345677095642</v>
+        <v>0.03124048737402495</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01609569837201724</v>
+        <v>0.01571959141857401</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01943681019187271</v>
+        <v>0.01989591153384555</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.007087312751458907</v>
+        <v>0.006724891717042139</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004962320552897461</v>
+        <v>0.005084450588077853</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006723313001067988</v>
+        <v>0.006680283695945554</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01425767175296438</v>
+        <v>0.01411315831301202</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.009964351232463446</v>
+        <v>0.009852804371628722</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01086969514719655</v>
+        <v>0.01105191174853041</v>
       </c>
     </row>
     <row r="19">
@@ -969,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>943</v>
+        <v>931</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6958</v>
+        <v>6046</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6807</v>
+        <v>6497</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9130</v>
+        <v>8279</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3240</v>
+        <v>3374</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3783</v>
+        <v>3933</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9274</v>
+        <v>9229</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14899</v>
+        <v>15107</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14146</v>
+        <v>14842</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24764</v>
+        <v>24775</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2869</v>
+        <v>3016</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2345</v>
+        <v>2305</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7239</v>
+        <v>6947</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16434</v>
+        <v>16204</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11160</v>
+        <v>10467</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21809</v>
+        <v>21385</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11556</v>
+        <v>11344</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5504</v>
+        <v>5713</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>19309</v>
+        <v>19409</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>31232</v>
+        <v>30019</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17354</v>
+        <v>16949</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>39633</v>
+        <v>40569</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>24244</v>
+        <v>23005</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>17860</v>
+        <v>18299</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>47197</v>
+        <v>46895</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>48773</v>
+        <v>48279</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>35862</v>
+        <v>35461</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>76304</v>
+        <v>77583</v>
       </c>
     </row>
     <row r="24">
